--- a/final-app/uploads/upload.xlsx
+++ b/final-app/uploads/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c.j.moule/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD39C5D3-C26D-49FA-9B7A-41901BA0617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD7EDB7-E1AB-407B-B498-9ABA4EF3CFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Tracker - Dummy Data " sheetId="1" r:id="rId1"/>
@@ -1381,52 +1381,52 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
-    <col min="3" max="3" width="42.90625" customWidth="1"/>
+    <col min="2" max="2" width="34.296875" customWidth="1"/>
+    <col min="3" max="3" width="42.8984375" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="3.90625" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="27.69921875" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="3.8984375" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
     <col min="12" max="12" width="11" style="25" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="35.36328125" customWidth="1"/>
-    <col min="16" max="16" width="2.36328125" customWidth="1"/>
-    <col min="17" max="17" width="33.90625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="35.3984375" customWidth="1"/>
+    <col min="16" max="16" width="2.3984375" customWidth="1"/>
+    <col min="17" max="17" width="33.8984375" style="2" customWidth="1"/>
     <col min="18" max="18" width="33" style="3" customWidth="1"/>
-    <col min="19" max="19" width="3.08984375" customWidth="1"/>
-    <col min="20" max="20" width="52.36328125" customWidth="1"/>
-    <col min="21" max="21" width="10.36328125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="4.08984375" customWidth="1"/>
-    <col min="23" max="23" width="16.36328125" customWidth="1"/>
-    <col min="24" max="24" width="14.90625" customWidth="1"/>
-    <col min="25" max="25" width="14.7265625" customWidth="1"/>
-    <col min="26" max="26" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.7265625" customWidth="1"/>
-    <col min="28" max="29" width="15.36328125" customWidth="1"/>
-    <col min="30" max="30" width="17.08984375" customWidth="1"/>
-    <col min="31" max="31" width="3.08984375" customWidth="1"/>
-    <col min="32" max="32" width="15.36328125" customWidth="1"/>
+    <col min="19" max="19" width="3.09765625" customWidth="1"/>
+    <col min="20" max="20" width="52.3984375" customWidth="1"/>
+    <col min="21" max="21" width="10.3984375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="4.09765625" customWidth="1"/>
+    <col min="23" max="23" width="16.3984375" customWidth="1"/>
+    <col min="24" max="24" width="14.8984375" customWidth="1"/>
+    <col min="25" max="25" width="14.69921875" customWidth="1"/>
+    <col min="26" max="26" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.69921875" customWidth="1"/>
+    <col min="28" max="29" width="15.3984375" customWidth="1"/>
+    <col min="30" max="30" width="17.09765625" customWidth="1"/>
+    <col min="31" max="31" width="3.09765625" customWidth="1"/>
+    <col min="32" max="32" width="15.3984375" customWidth="1"/>
     <col min="33" max="33" width="2" customWidth="1"/>
-    <col min="34" max="34" width="11.36328125" customWidth="1"/>
-    <col min="35" max="35" width="2.36328125" customWidth="1"/>
-    <col min="36" max="36" width="13.36328125" customWidth="1"/>
-    <col min="37" max="37" width="2.90625" customWidth="1"/>
-    <col min="38" max="38" width="16.7265625" customWidth="1"/>
-    <col min="39" max="39" width="2.7265625" customWidth="1"/>
-    <col min="40" max="40" width="13.36328125" customWidth="1"/>
+    <col min="34" max="34" width="11.3984375" customWidth="1"/>
+    <col min="35" max="35" width="2.3984375" customWidth="1"/>
+    <col min="36" max="36" width="13.3984375" customWidth="1"/>
+    <col min="37" max="37" width="2.8984375" customWidth="1"/>
+    <col min="38" max="38" width="16.69921875" customWidth="1"/>
+    <col min="39" max="39" width="2.69921875" customWidth="1"/>
+    <col min="40" max="40" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="77.25" customHeight="1">
@@ -1772,7 +1772,7 @@
         <v>10000</v>
       </c>
       <c r="Z6" s="53">
-        <f t="shared" ref="Z6:Z17" si="0">SUM(W6:Y6)</f>
+        <f>SUM(W6:Y6)</f>
         <v>30000</v>
       </c>
       <c r="AA6" s="53"/>
@@ -1783,7 +1783,7 @@
         <v>75000</v>
       </c>
       <c r="AD6" s="53">
-        <f t="shared" ref="AD6:AD17" si="1">SUM(AB6:AC6)</f>
+        <f>SUM(AB6:AC6)</f>
         <v>75000</v>
       </c>
       <c r="AE6" s="52"/>
@@ -1867,7 +1867,7 @@
         <v>15000</v>
       </c>
       <c r="Z7" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W7:Y7)</f>
         <v>15000</v>
       </c>
       <c r="AA7" s="53"/>
@@ -1878,7 +1878,7 @@
         <v>5000</v>
       </c>
       <c r="AD7" s="53">
-        <f t="shared" si="1"/>
+        <f>SUM(AB7:AC7)</f>
         <v>20000</v>
       </c>
       <c r="AE7" s="53"/>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W8:Y8)</f>
         <v>20000</v>
       </c>
       <c r="AA8" s="53"/>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="53">
-        <f t="shared" si="1"/>
+        <f>SUM(AB8:AC8)</f>
         <v>3000</v>
       </c>
       <c r="AE8" s="52"/>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W9:Y9)</f>
         <v>10000</v>
       </c>
       <c r="AA9" s="53"/>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="53">
-        <f t="shared" si="1"/>
+        <f>SUM(AB9:AC9)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="52"/>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W10:Y10)</f>
         <v>10000</v>
       </c>
       <c r="AA10" s="53"/>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="53">
-        <f t="shared" si="1"/>
+        <f>SUM(AB10:AC10)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="52"/>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W11:Y11)</f>
         <v>2000</v>
       </c>
       <c r="AA11" s="13"/>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB11:AC11)</f>
         <v>10000</v>
       </c>
       <c r="AE11" s="13"/>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <f t="shared" si="0"/>
+        <f>SUM(W12:Y12)</f>
         <v>2500</v>
       </c>
       <c r="AA12" s="13"/>
@@ -2348,7 +2348,7 @@
         <v>5000</v>
       </c>
       <c r="AD12" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB12:AC12)</f>
         <v>10000</v>
       </c>
       <c r="AE12" s="13"/>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(W13:Y13)</f>
         <v>2000</v>
       </c>
       <c r="AA13" s="13"/>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB13:AC13)</f>
         <v>2000</v>
       </c>
       <c r="AE13" s="13"/>
@@ -2529,7 +2529,7 @@
         <v>55000</v>
       </c>
       <c r="Z14" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(W14:Y14)</f>
         <v>75000</v>
       </c>
       <c r="AA14" s="13"/>
@@ -2540,7 +2540,7 @@
         <v>50000</v>
       </c>
       <c r="AD14" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB14:AC14)</f>
         <v>53000</v>
       </c>
       <c r="AE14" s="13"/>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(W15:Y15)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="13"/>
@@ -2634,7 +2634,7 @@
         <v>20000</v>
       </c>
       <c r="AD15" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB15:AC15)</f>
         <v>70000</v>
       </c>
       <c r="AE15" s="13"/>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(W16:Y16)</f>
         <v>10000</v>
       </c>
       <c r="AA16" s="13"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB16:AC16)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="13"/>
@@ -2810,7 +2810,7 @@
         <v>5000</v>
       </c>
       <c r="Z17" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(W17:Y17)</f>
         <v>15000</v>
       </c>
       <c r="AA17" s="13"/>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="13">
-        <f t="shared" si="1"/>
+        <f>SUM(AB17:AC17)</f>
         <v>4000</v>
       </c>
       <c r="AE17" s="13"/>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:40" ht="15">
       <c r="H18" s="22"/>
     </row>
   </sheetData>
@@ -2908,11 +2908,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.8984375" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="36.75" customHeight="1">
@@ -2924,7 +2924,7 @@
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4" thickBot="1">
+    <row r="3" spans="1:5" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" thickTop="1">
+    <row r="4" spans="1:5" ht="15.95" thickTop="1">
       <c r="A4" s="8" t="s">
         <v>68</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="8" t="s">
         <v>102</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="8" t="s">
         <v>104</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="8" t="s">
         <v>83</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
@@ -3012,92 +3012,92 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3112,17 +3112,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04ab9ea7-ca5d-4fb4-85f2-2132540d6713" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8f9dc846-e971-4271-8e08-4f5c9cebb001">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100376E556D4E0320418B6383EAF91EB40F" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5adfdea4f266f96c817235f30c62d154">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8f9dc846-e971-4271-8e08-4f5c9cebb001" xmlns:ns3="04ab9ea7-ca5d-4fb4-85f2-2132540d6713" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f27f3a4070690e1c978a1ade93c85b5" ns2:_="" ns3:_="">
     <xsd:import namespace="8f9dc846-e971-4271-8e08-4f5c9cebb001"/>
@@ -3311,6 +3300,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04ab9ea7-ca5d-4fb4-85f2-2132540d6713" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8f9dc846-e971-4271-8e08-4f5c9cebb001">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3321,39 +3321,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E70A3BE-F2CB-4FF3-8CBA-5F718942B828}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04ab9ea7-ca5d-4fb4-85f2-2132540d6713"/>
-    <ds:schemaRef ds:uri="8f9dc846-e971-4271-8e08-4f5c9cebb001"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F660E64C-5B9F-444F-9226-8E02BF551F7E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F660E64C-5B9F-444F-9226-8E02BF551F7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f9dc846-e971-4271-8e08-4f5c9cebb001"/>
-    <ds:schemaRef ds:uri="04ab9ea7-ca5d-4fb4-85f2-2132540d6713"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E70A3BE-F2CB-4FF3-8CBA-5F718942B828}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CDDF40-90E5-440E-8C3F-45A9566452AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CDDF40-90E5-440E-8C3F-45A9566452AD}"/>
 </file>